--- a/biology/Botanique/Pomme_de_Rouairoux/Pomme_de_Rouairoux.xlsx
+++ b/biology/Botanique/Pomme_de_Rouairoux/Pomme_de_Rouairoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Pomme de Rouairoux est une variété de pomme. Il s'agit d'une variété ancienne et locale, cultivée dans le Haut-Languedoc[1], notamment dans la commune de Rouairoux. Elle échappe aux dernières gelées printanières parce qu'elle fleurit tardivement[2]. 
-Ses fruits sont de gros calibre, légèrement coniques, jaune-vert avec des stries rouges. La cueillette a lieu en octobre-novembre. On peut aisément en faire des jus[2]. 
-Le Parc naturel régional du Haut-Languedoc organise sa préservation en faisant planter ses greffons dans des vergers de sauvegarde implantés dans différentes communes[1], dont celle du Rialet, dans le département du Tarn[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Pomme de Rouairoux est une variété de pomme. Il s'agit d'une variété ancienne et locale, cultivée dans le Haut-Languedoc, notamment dans la commune de Rouairoux. Elle échappe aux dernières gelées printanières parce qu'elle fleurit tardivement. 
+Ses fruits sont de gros calibre, légèrement coniques, jaune-vert avec des stries rouges. La cueillette a lieu en octobre-novembre. On peut aisément en faire des jus. 
+Le Parc naturel régional du Haut-Languedoc organise sa préservation en faisant planter ses greffons dans des vergers de sauvegarde implantés dans différentes communes, dont celle du Rialet, dans le département du Tarn. 
 </t>
         </is>
       </c>
